--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>122.195433268517</v>
+        <v>0.444897</v>
       </c>
       <c r="H2">
-        <v>122.195433268517</v>
+        <v>1.334691</v>
       </c>
       <c r="I2">
-        <v>0.9976651625842861</v>
+        <v>0.003428316267562725</v>
       </c>
       <c r="J2">
-        <v>0.9976651625842861</v>
+        <v>0.003431137301534091</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>2107.118628584563</v>
+        <v>9.380635004223</v>
       </c>
       <c r="R2">
-        <v>2107.118628584563</v>
+        <v>84.425715038007</v>
       </c>
       <c r="S2">
-        <v>0.0307380146465569</v>
+        <v>0.0001159223674017733</v>
       </c>
       <c r="T2">
-        <v>0.0307380146465569</v>
+        <v>0.0001204028101079946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>122.195433268517</v>
+        <v>0.444897</v>
       </c>
       <c r="H3">
-        <v>122.195433268517</v>
+        <v>1.334691</v>
       </c>
       <c r="I3">
-        <v>0.9976651625842861</v>
+        <v>0.003428316267562725</v>
       </c>
       <c r="J3">
-        <v>0.9976651625842861</v>
+        <v>0.003431137301534091</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>9387.939251644806</v>
+        <v>36.064826246751</v>
       </c>
       <c r="R3">
-        <v>9387.939251644806</v>
+        <v>324.583436220759</v>
       </c>
       <c r="S3">
-        <v>0.1369484424386141</v>
+        <v>0.0004456755898267972</v>
       </c>
       <c r="T3">
-        <v>0.1369484424386141</v>
+        <v>0.0004629011174841095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>122.195433268517</v>
+        <v>0.444897</v>
       </c>
       <c r="H4">
-        <v>122.195433268517</v>
+        <v>1.334691</v>
       </c>
       <c r="I4">
-        <v>0.9976651625842861</v>
+        <v>0.003428316267562725</v>
       </c>
       <c r="J4">
-        <v>0.9976651625842861</v>
+        <v>0.003431137301534091</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>16079.03756309569</v>
+        <v>60.950629921647</v>
       </c>
       <c r="R4">
-        <v>16079.03756309569</v>
+        <v>548.555669294823</v>
       </c>
       <c r="S4">
-        <v>0.2345561780016977</v>
+        <v>0.0007532050135162381</v>
       </c>
       <c r="T4">
-        <v>0.2345561780016977</v>
+        <v>0.0007823166680203414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>122.195433268517</v>
+        <v>0.444897</v>
       </c>
       <c r="H5">
-        <v>122.195433268517</v>
+        <v>1.334691</v>
       </c>
       <c r="I5">
-        <v>0.9976651625842861</v>
+        <v>0.003428316267562725</v>
       </c>
       <c r="J5">
-        <v>0.9976651625842861</v>
+        <v>0.003431137301534091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>35084.318988666</v>
+        <v>140.717722735467</v>
       </c>
       <c r="R5">
-        <v>35084.318988666</v>
+        <v>1266.459504619203</v>
       </c>
       <c r="S5">
-        <v>0.5117995239131411</v>
+        <v>0.001738936814782597</v>
       </c>
       <c r="T5">
-        <v>0.5117995239131411</v>
+        <v>0.001806147370803843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>122.195433268517</v>
+        <v>0.444897</v>
       </c>
       <c r="H6">
-        <v>122.195433268517</v>
+        <v>1.334691</v>
       </c>
       <c r="I6">
-        <v>0.9976651625842861</v>
+        <v>0.003428316267562725</v>
       </c>
       <c r="J6">
-        <v>0.9976651625842861</v>
+        <v>0.003431137301534091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>5732.432320587744</v>
+        <v>30.311365596606</v>
       </c>
       <c r="R6">
-        <v>5732.432320587744</v>
+        <v>181.868193579636</v>
       </c>
       <c r="S6">
-        <v>0.0836230035842763</v>
+        <v>0.0003745764820353201</v>
       </c>
       <c r="T6">
-        <v>0.0836230035842763</v>
+        <v>0.0002593693351178023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.285974172823351</v>
+        <v>127.1112316666667</v>
       </c>
       <c r="H7">
-        <v>0.285974172823351</v>
+        <v>381.333695</v>
       </c>
       <c r="I7">
-        <v>0.002334837415713987</v>
+        <v>0.9795020045376064</v>
       </c>
       <c r="J7">
-        <v>0.002334837415713987</v>
+        <v>0.980308000313424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>4.93129318119449</v>
+        <v>2680.135108131168</v>
       </c>
       <c r="R7">
-        <v>4.93129318119449</v>
+        <v>24121.21597318051</v>
       </c>
       <c r="S7">
-        <v>7.19362260737278E-05</v>
+        <v>0.03312010397497679</v>
       </c>
       <c r="T7">
-        <v>7.19362260737278E-05</v>
+        <v>0.03440020833800853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.285974172823351</v>
+        <v>127.1112316666667</v>
       </c>
       <c r="H8">
-        <v>0.285974172823351</v>
+        <v>381.333695</v>
       </c>
       <c r="I8">
-        <v>0.002334837415713987</v>
+        <v>0.9795020045376064</v>
       </c>
       <c r="J8">
-        <v>0.002334837415713987</v>
+        <v>0.980308000313424</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>21.97060962258312</v>
+        <v>10304.05798211462</v>
       </c>
       <c r="R8">
-        <v>21.97060962258312</v>
+        <v>92736.52183903156</v>
       </c>
       <c r="S8">
-        <v>0.0003205006643723673</v>
+        <v>0.1273336820582119</v>
       </c>
       <c r="T8">
-        <v>0.0003205006643723673</v>
+        <v>0.1322551763290863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.285974172823351</v>
+        <v>127.1112316666667</v>
       </c>
       <c r="H9">
-        <v>0.285974172823351</v>
+        <v>381.333695</v>
       </c>
       <c r="I9">
-        <v>0.002334837415713987</v>
+        <v>0.9795020045376064</v>
       </c>
       <c r="J9">
-        <v>0.002334837415713987</v>
+        <v>0.980308000313424</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>37.62979797123546</v>
+        <v>17414.16471722609</v>
       </c>
       <c r="R9">
-        <v>37.62979797123546</v>
+        <v>156727.4824550348</v>
       </c>
       <c r="S9">
-        <v>0.0005489322079430297</v>
+        <v>0.2151977131011387</v>
       </c>
       <c r="T9">
-        <v>0.0005489322079430297</v>
+        <v>0.2235151849201689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.285974172823351</v>
+        <v>127.1112316666667</v>
       </c>
       <c r="H10">
-        <v>0.285974172823351</v>
+        <v>381.333695</v>
       </c>
       <c r="I10">
-        <v>0.002334837415713987</v>
+        <v>0.9795020045376064</v>
       </c>
       <c r="J10">
-        <v>0.002334837415713987</v>
+        <v>0.980308000313424</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>82.10788925153187</v>
+        <v>40204.3687735222</v>
       </c>
       <c r="R10">
-        <v>82.10788925153187</v>
+        <v>361839.3189616999</v>
       </c>
       <c r="S10">
-        <v>0.001197765264932815</v>
+        <v>0.4968305030546981</v>
       </c>
       <c r="T10">
-        <v>0.001197765264932815</v>
+        <v>0.5160331871745329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>127.1112316666667</v>
+      </c>
+      <c r="H11">
+        <v>381.333695</v>
+      </c>
+      <c r="I11">
+        <v>0.9795020045376064</v>
+      </c>
+      <c r="J11">
+        <v>0.980308000313424</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>68.131198</v>
+      </c>
+      <c r="N11">
+        <v>136.262396</v>
+      </c>
+      <c r="O11">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P11">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q11">
+        <v>8660.240492705536</v>
+      </c>
+      <c r="R11">
+        <v>51961.44295623322</v>
+      </c>
+      <c r="S11">
+        <v>0.1070200023485808</v>
+      </c>
+      <c r="T11">
+        <v>0.07410424355162717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6990286666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.097086</v>
+      </c>
+      <c r="I12">
+        <v>0.005386620609772633</v>
+      </c>
+      <c r="J12">
+        <v>0.005391053059565788</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>21.084959</v>
+      </c>
+      <c r="N12">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O12">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P12">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q12">
+        <v>14.73899077649133</v>
+      </c>
+      <c r="R12">
+        <v>132.650916988422</v>
+      </c>
+      <c r="S12">
+        <v>0.0001821389173712231</v>
+      </c>
+      <c r="T12">
+        <v>0.0001891786544137437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6990286666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.097086</v>
+      </c>
+      <c r="I13">
+        <v>0.005386620609772633</v>
+      </c>
+      <c r="J13">
+        <v>0.005391053059565788</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N13">
+        <v>243.189949</v>
+      </c>
+      <c r="O13">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P13">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q13">
+        <v>56.66558193206822</v>
+      </c>
+      <c r="R13">
+        <v>509.990237388614</v>
+      </c>
+      <c r="S13">
+        <v>0.0007002519983782903</v>
+      </c>
+      <c r="T13">
+        <v>0.0007273169991108663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.6990286666666666</v>
+      </c>
+      <c r="H14">
+        <v>2.097086</v>
+      </c>
+      <c r="I14">
+        <v>0.005386620609772633</v>
+      </c>
+      <c r="J14">
+        <v>0.005391053059565788</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N14">
+        <v>410.998253</v>
+      </c>
+      <c r="O14">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P14">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q14">
+        <v>95.76652026563977</v>
+      </c>
+      <c r="R14">
+        <v>861.8986823907579</v>
+      </c>
+      <c r="S14">
+        <v>0.00118344672210625</v>
+      </c>
+      <c r="T14">
+        <v>0.001229187379005407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.6990286666666666</v>
+      </c>
+      <c r="H15">
+        <v>2.097086</v>
+      </c>
+      <c r="I15">
+        <v>0.005386620609772633</v>
+      </c>
+      <c r="J15">
+        <v>0.005391053059565788</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>316.292811</v>
+      </c>
+      <c r="N15">
+        <v>948.878433</v>
+      </c>
+      <c r="O15">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P15">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q15">
+        <v>221.097741949582</v>
+      </c>
+      <c r="R15">
+        <v>1989.879677546238</v>
+      </c>
+      <c r="S15">
+        <v>0.00273224293050989</v>
+      </c>
+      <c r="T15">
+        <v>0.002837845138125265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.6990286666666666</v>
+      </c>
+      <c r="H16">
+        <v>2.097086</v>
+      </c>
+      <c r="I16">
+        <v>0.005386620609772633</v>
+      </c>
+      <c r="J16">
+        <v>0.005391053059565788</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.131198</v>
+      </c>
+      <c r="N16">
+        <v>136.262396</v>
+      </c>
+      <c r="O16">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P16">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q16">
+        <v>47.62566049634266</v>
+      </c>
+      <c r="R16">
+        <v>285.753962978056</v>
+      </c>
+      <c r="S16">
+        <v>0.0005885400414069784</v>
+      </c>
+      <c r="T16">
+        <v>0.0004075248889105055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.196037</v>
+      </c>
+      <c r="H17">
+        <v>3.588111</v>
+      </c>
+      <c r="I17">
+        <v>0.009216499782437101</v>
+      </c>
+      <c r="J17">
+        <v>0.009224083697383732</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.084959</v>
+      </c>
+      <c r="N17">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P17">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q17">
+        <v>25.218391107483</v>
+      </c>
+      <c r="R17">
+        <v>226.965519967347</v>
+      </c>
+      <c r="S17">
+        <v>0.0003116394143815641</v>
+      </c>
+      <c r="T17">
+        <v>0.0003236843939004659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.285974172823351</v>
-      </c>
-      <c r="H11">
-        <v>0.285974172823351</v>
-      </c>
-      <c r="I11">
-        <v>0.002334837415713987</v>
-      </c>
-      <c r="J11">
-        <v>0.002334837415713987</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="N11">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="O11">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="P11">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="Q11">
-        <v>13.4156207584583</v>
-      </c>
-      <c r="R11">
-        <v>13.4156207584583</v>
-      </c>
-      <c r="S11">
-        <v>0.0001957030523920475</v>
-      </c>
-      <c r="T11">
-        <v>0.0001957030523920475</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.196037</v>
+      </c>
+      <c r="H18">
+        <v>3.588111</v>
+      </c>
+      <c r="I18">
+        <v>0.009216499782437101</v>
+      </c>
+      <c r="J18">
+        <v>0.009224083697383732</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N18">
+        <v>243.189949</v>
+      </c>
+      <c r="O18">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P18">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q18">
+        <v>96.954725677371</v>
+      </c>
+      <c r="R18">
+        <v>872.592531096339</v>
+      </c>
+      <c r="S18">
+        <v>0.001198130118723374</v>
+      </c>
+      <c r="T18">
+        <v>0.001244438294374522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.196037</v>
+      </c>
+      <c r="H19">
+        <v>3.588111</v>
+      </c>
+      <c r="I19">
+        <v>0.009216499782437101</v>
+      </c>
+      <c r="J19">
+        <v>0.009224083697383732</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N19">
+        <v>410.998253</v>
+      </c>
+      <c r="O19">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P19">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q19">
+        <v>163.856372507787</v>
+      </c>
+      <c r="R19">
+        <v>1474.707352570083</v>
+      </c>
+      <c r="S19">
+        <v>0.002024875566144345</v>
+      </c>
+      <c r="T19">
+        <v>0.002103137761479724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.196037</v>
+      </c>
+      <c r="H20">
+        <v>3.588111</v>
+      </c>
+      <c r="I20">
+        <v>0.009216499782437101</v>
+      </c>
+      <c r="J20">
+        <v>0.009224083697383732</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>316.292811</v>
+      </c>
+      <c r="N20">
+        <v>948.878433</v>
+      </c>
+      <c r="O20">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P20">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q20">
+        <v>378.297904790007</v>
+      </c>
+      <c r="R20">
+        <v>3404.681143110063</v>
+      </c>
+      <c r="S20">
+        <v>0.00467486355525466</v>
+      </c>
+      <c r="T20">
+        <v>0.004855548774062572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.196037</v>
+      </c>
+      <c r="H21">
+        <v>3.588111</v>
+      </c>
+      <c r="I21">
+        <v>0.009216499782437101</v>
+      </c>
+      <c r="J21">
+        <v>0.009224083697383732</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>68.131198</v>
+      </c>
+      <c r="N21">
+        <v>136.262396</v>
+      </c>
+      <c r="O21">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P21">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q21">
+        <v>81.487433662326</v>
+      </c>
+      <c r="R21">
+        <v>488.924601973956</v>
+      </c>
+      <c r="S21">
+        <v>0.001006991127933158</v>
+      </c>
+      <c r="T21">
+        <v>0.0006972744735664455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3200885</v>
+      </c>
+      <c r="H22">
+        <v>0.640177</v>
+      </c>
+      <c r="I22">
+        <v>0.002466558802621172</v>
+      </c>
+      <c r="J22">
+        <v>0.001645725628092337</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.084959</v>
+      </c>
+      <c r="N22">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O22">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P22">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q22">
+        <v>6.749052898871499</v>
+      </c>
+      <c r="R22">
+        <v>40.494317393229</v>
+      </c>
+      <c r="S22">
+        <v>8.340226321616578E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.77505278498961E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3200885</v>
+      </c>
+      <c r="H23">
+        <v>0.640177</v>
+      </c>
+      <c r="I23">
+        <v>0.002466558802621172</v>
+      </c>
+      <c r="J23">
+        <v>0.001645725628092337</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N23">
+        <v>243.189949</v>
+      </c>
+      <c r="O23">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P23">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q23">
+        <v>25.94743533016216</v>
+      </c>
+      <c r="R23">
+        <v>155.684611980973</v>
+      </c>
+      <c r="S23">
+        <v>0.0003206486693195836</v>
+      </c>
+      <c r="T23">
+        <v>0.0002220279065998233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3200885</v>
+      </c>
+      <c r="H24">
+        <v>0.640177</v>
+      </c>
+      <c r="I24">
+        <v>0.002466558802621172</v>
+      </c>
+      <c r="J24">
+        <v>0.001645725628092337</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N24">
+        <v>410.998253</v>
+      </c>
+      <c r="O24">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P24">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q24">
+        <v>43.85193810179683</v>
+      </c>
+      <c r="R24">
+        <v>263.111628610781</v>
+      </c>
+      <c r="S24">
+        <v>0.0005419057961031258</v>
+      </c>
+      <c r="T24">
+        <v>0.0003752337713997158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3200885</v>
+      </c>
+      <c r="H25">
+        <v>0.640177</v>
+      </c>
+      <c r="I25">
+        <v>0.002466558802621172</v>
+      </c>
+      <c r="J25">
+        <v>0.001645725628092337</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>316.292811</v>
+      </c>
+      <c r="N25">
+        <v>948.878433</v>
+      </c>
+      <c r="O25">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P25">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q25">
+        <v>101.2416914337735</v>
+      </c>
+      <c r="R25">
+        <v>607.450148602641</v>
+      </c>
+      <c r="S25">
+        <v>0.001251106832904108</v>
+      </c>
+      <c r="T25">
+        <v>0.0008663083855357472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3200885</v>
+      </c>
+      <c r="H26">
+        <v>0.640177</v>
+      </c>
+      <c r="I26">
+        <v>0.002466558802621172</v>
+      </c>
+      <c r="J26">
+        <v>0.001645725628092337</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>68.131198</v>
+      </c>
+      <c r="N26">
+        <v>136.262396</v>
+      </c>
+      <c r="O26">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P26">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q26">
+        <v>21.808012971023</v>
+      </c>
+      <c r="R26">
+        <v>87.232051884092</v>
+      </c>
+      <c r="S26">
+        <v>0.0002694952410781879</v>
+      </c>
+      <c r="T26">
+        <v>0.0001244050367071549</v>
       </c>
     </row>
   </sheetData>
